--- a/exhibitors2021/poster/exhibitor_sample/exhibitor_info_fields.xlsx
+++ b/exhibitors2021/poster/exhibitor_sample/exhibitor_info_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlynan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlynan/Downloads/git/intercubesatorg.github.io/exhibitors2021/poster/exhibitor_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C42ED-30CA-F346-985E-B9ECCDBD8763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87FED6-EA31-8B4E-BDC5-2F2484941E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{8B4B8BA6-E24D-574D-B9DC-5F9C50A98387}"/>
+    <workbookView xWindow="3980" yWindow="11820" windowWidth="27640" windowHeight="16940" xr2:uid="{8B4B8BA6-E24D-574D-B9DC-5F9C50A98387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Name_of_Company</t>
   </si>
@@ -91,13 +91,40 @@
   </si>
   <si>
     <t>www.companyexample.com</t>
+  </si>
+  <si>
+    <t>Small Spacecraft Technology Program and the Small Spacecraft Systems Virtual Institute</t>
+  </si>
+  <si>
+    <t>Bruce Yost</t>
+  </si>
+  <si>
+    <t>Director, Small Spacecraft Systems Virtual Institute</t>
+  </si>
+  <si>
+    <t>Julianna.L.Fishman@nasa.gov</t>
+  </si>
+  <si>
+    <t>https://www.nasa.gov/directorates/spacetech/small_spacecraft/index.html</t>
+  </si>
+  <si>
+    <t>https://www.nasa.gov/smallsat-institute</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>https://gcc02.safelinks.protection.outlook.com/?url=https://urldefense.us/v3/__https:/gcc02.safelinks.protection.outlook.com/?url=https*3A*2F*2Furldefense.us*2Fv3*2F__https*3A*2Fteams.microsoft.com*2Fl*2Fmeetup-join*2F19*3ameeting_YjZmMjUzMTMtOWMxOC00MWU1LWE5ZGUtNzZiZWEzMDRmZWJk*40thread.v2*2F0*3Fcontext*3D*7b*22Tid*22*3a*227005d458-45be-48ae-8140-d43da96dd17b*22*2c*22Oid*22*3a*22e9e2948d-c8cb-4074-91c1-81699a6e5194*22*7d__*3BJSUlJSUlJSUlJSUlJSUl!!PvBDto6Hs4WbVuu7!Y_ENJF5JPha7J807SofdKzEEmv4ZOcVJI1hN8gqdj8WiNC-r97HTbYFyDos59eiFU8fL*24&amp;data=04*7C01*7Cjulianna.l.fishman*40nasa.gov*7C2dddc3d1fdc14b45135908d8ddb272fb*7C7005d45845be48ae8140d43da96dd17b*7C0*7C0*7C637503105808627770*7CUnknown*7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0*3D*7C1000&amp;sdata=kMy92aRqPoTO*2BMSM4MqfKmjLDz*2BdxyME6LU7Xwbt0IA*3D&amp;reserved=0__;JSUlJSUlJSUlJSoqJSUlKioqKioqKioqKioqKiUlJSUlJSUlJSUlJSUlJSUl!!PvBDto6Hs4WbVuu7!eHV53Ld3MKolGNSFdzl3AMU-oLBarPHLZXNCMRo2VkSnxtcFHcFOwVltXRpvzQWUyRsB$&amp;data=04|01|julianna.l.fishman@nasa.gov|202d341a05ba4725e75b08d8dde11db1|7005d45845be48ae8140d43da96dd17b|0|0|637503306241823576|Unknown|TWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0=|1000&amp;sdata=xSW3+f3h9HL9ULLwLmN3kpCqjCYKmSiq68ZO7HdvVL0=&amp;reserved=0</t>
+  </si>
+  <si>
+    <t>During all breaks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +136,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,55 +490,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614EC681-E395-6548-AC26-9BA316EE8EF8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -511,6 +561,9 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -519,13 +572,19 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -535,6 +594,9 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -551,14 +613,24 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{9A1FEC08-25B9-EB46-ADDA-B9829A6FF5D7}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{FD085CF1-4A98-EF47-A749-4C35FC68D3CC}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{FD085CF1-4A98-EF47-A749-4C35FC68D3CC}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{A19BAAE3-21AB-BE42-888B-1CD28837F47A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{278AD5FF-13B3-3742-9D18-F96F77A759D5}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{9A1FEC08-25B9-EB46-ADDA-B9829A6FF5D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
